--- a/biology/Botanique/Haplogloia/Haplogloia.xlsx
+++ b/biology/Botanique/Haplogloia/Haplogloia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haplogloia  est un genre d'algues brunes de la famille des Chordariaceae selon AlgaeBase                                           (31 oct. 2012)[1], NCBI  (31 oct. 2012)[2] et ITIS      (31 oct. 2012)[3] ou bien de la famille des Scytosiphonaceae selon World Register of Marine Species                               (31 oct. 2012)[4] et Catalogue of Life                                  (31 oct. 2012)[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haplogloia  est un genre d'algues brunes de la famille des Chordariaceae selon AlgaeBase                                           (31 oct. 2012), NCBI  (31 oct. 2012) et ITIS      (31 oct. 2012) ou bien de la famille des Scytosiphonaceae selon World Register of Marine Species                               (31 oct. 2012) et Catalogue of Life                                  (31 oct. 2012). 
 </t>
         </is>
       </c>
@@ -511,21 +523,23 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (31 oct. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (31 oct. 2012) :
 Haplogloia andersonii (Farlow) Levring (espèce type)
 Haplogloia kuckuckii Kylin
 Haplogloia kurilensis Inagaki (Sans vérification)
 Haplogloia moniliformis R.W.Ricker
-Selon Catalogue of Life                                  (31 oct. 2012)[5] et World Register of Marine Species                               (31 oct. 2012)[4] :
+Selon Catalogue of Life                                  (31 oct. 2012) et World Register of Marine Species                               (31 oct. 2012) :
 Haplogloia andersonii (Farlow) Levring, 1939
 Haplogloia kuckuckii Kylin, 1940
 Haplogloia moniliformis R.W.Ricker, 1987
-Selon ITIS      (31 oct. 2012)[3] :
+Selon ITIS      (31 oct. 2012) :
 Haplogloia andersonii (Farlow) Levring
 Haplogloia kuckuckii
-Selon NCBI  (31 oct. 2012)[2] :
+Selon NCBI  (31 oct. 2012) :
 Haplogloia andersonii</t>
         </is>
       </c>
